--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07230660948058</v>
+        <v>12.06299460600843</v>
       </c>
       <c r="G2" t="n">
-        <v>11.01118072379724</v>
+        <v>10.99641073747695</v>
       </c>
       <c r="H2" t="n">
-        <v>13.13014360972259</v>
+        <v>13.12313884420613</v>
       </c>
       <c r="I2" t="n">
-        <v>1.892021546859891</v>
+        <v>1.892620994339465</v>
       </c>
       <c r="J2" t="n">
-        <v>1.677778581248234</v>
+        <v>1.670871214393642</v>
       </c>
       <c r="K2" t="n">
-        <v>2.093870581806193</v>
+        <v>2.098504397666163</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1513392845608715</v>
+        <v>0.1513826561181574</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1355487151613935</v>
+        <v>0.1352322530838551</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1664841173996615</v>
+        <v>0.166784074039164</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002973929754232159</v>
+        <v>0.002979199992955184</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001217679332732565</v>
+        <v>0.001225734052259997</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005238826263747855</v>
+        <v>0.005291759204239123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002727247204539332</v>
+        <v>0.002731003867812408</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001120260012542378</v>
+        <v>0.001127675264114317</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004794758418528814</v>
+        <v>0.004844346623776378</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003050950382511535</v>
+        <v>0.003056091510215558</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001287216266490589</v>
+        <v>0.001295684125663276</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005320507887878148</v>
+        <v>0.005373240507213315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.06597380600138</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.99763647152921</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.12843060341037</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.895351998207277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.671998889657756</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.10334874428994</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.154438747628373</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1365279372095184</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1721573145463773</v>
       </c>
     </row>
   </sheetData>
